--- a/组里费用支出明细.xlsx
+++ b/组里费用支出明细.xlsx
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2241,7 +2241,7 @@
         <v>114</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H39" s="4">
         <v>14187.88</v>

--- a/组里费用支出明细.xlsx
+++ b/组里费用支出明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="209">
   <si>
     <t>活动费用记账</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -837,6 +837,14 @@
   </si>
   <si>
     <t>复印文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1301,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2939,6 +2947,26 @@
       </c>
       <c r="J66" s="1" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3150</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H67" s="4">
+        <v>20325.38</v>
       </c>
     </row>
   </sheetData>

--- a/组里费用支出明细.xlsx
+++ b/组里费用支出明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
   <si>
     <t>活动费用记账</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -845,6 +845,18 @@
   </si>
   <si>
     <t>经费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2967,6 +2979,32 @@
       </c>
       <c r="H67" s="4">
         <v>20325.38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="3">
+        <v>429</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" s="4">
+        <v>19896.38</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/组里费用支出明细.xlsx
+++ b/组里费用支出明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="225">
   <si>
     <t>活动费用记账</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -856,7 +856,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>谭映彤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文具</t>
+  </si>
+  <si>
+    <t>2019.2.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.3.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗户磨砂贴纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.3.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椅子脚垫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1321,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72:J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2321,6 +2372,9 @@
       <c r="I41" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="J41" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2424,6 +2478,9 @@
       <c r="I45" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="J45" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -2448,6 +2505,9 @@
       <c r="I46" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="J46" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
@@ -2804,6 +2864,9 @@
       <c r="I60" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="J60" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2825,7 +2888,7 @@
         <v>20103.18</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>194</v>
@@ -2851,7 +2914,7 @@
         <v>19987.18</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>194</v>
@@ -2877,7 +2940,7 @@
         <v>19905.080000000002</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>194</v>
@@ -2903,7 +2966,7 @@
         <v>19820.080000000002</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>194</v>
@@ -3001,10 +3064,140 @@
         <v>19896.38</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="J68" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>211</v>
+      </c>
+      <c r="H69" s="4">
+        <v>19821.88</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="3">
+        <v>120.4</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="4">
+        <v>19701.48</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E71" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="4">
+        <v>19675.98</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="3">
+        <v>129</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="4">
+        <v>19546.98</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="4">
+        <v>19532.080000000002</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
